--- a/FACE_data/Allometry_Results.xlsx
+++ b/FACE_data/Allometry_Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ud4/repos/GitHub/FATESFACE/FACE_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ABE6C3F-ECAE-DA4A-B49F-D052A9CDBB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD17525-4BFB-884B-8F68-95755C1DCD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="1380" windowWidth="37400" windowHeight="24620" xr2:uid="{524ED8C6-B0AD-7A4A-9E1F-CA51DC14B1BA}"/>
+    <workbookView xWindow="-39960" yWindow="700" windowWidth="37400" windowHeight="24620" activeTab="1" xr2:uid="{524ED8C6-B0AD-7A4A-9E1F-CA51DC14B1BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="50">
   <si>
     <t>FACE ORNL Sweetgum</t>
   </si>
@@ -117,15 +118,91 @@
   </si>
   <si>
     <t>D2AGB Ptaeda</t>
+  </si>
+  <si>
+    <t>Sweetgum</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Allometry</t>
+  </si>
+  <si>
+    <t>PFT</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Ambient</t>
+  </si>
+  <si>
+    <t>Power: h = (p1 * d**(p2))</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Elevated</t>
+  </si>
+  <si>
+    <t>Obrien: h = 10**(log10(d)*p1+p2)</t>
+  </si>
+  <si>
+    <t>Norby 2001 Paper</t>
+  </si>
+  <si>
+    <t>Norby 2024 Paper (in review)</t>
+  </si>
+  <si>
+    <t>Loblolly</t>
+  </si>
+  <si>
+    <t>TALLO ref 17</t>
+  </si>
+  <si>
+    <t>TALLO ref 62</t>
+  </si>
+  <si>
+    <t>Kim 2019</t>
+  </si>
+  <si>
+    <t>Broadleaf</t>
+  </si>
+  <si>
+    <t>D2BL</t>
+  </si>
+  <si>
+    <t>Power: agb = (p1 * d**p2) / c2b</t>
+  </si>
+  <si>
+    <t>Power: blmax = (p1 * d**p2) / c2b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -140,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,12 +225,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E29C83-852A-CA46-8324-AF07645BE59D}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,4 +994,507 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3303C9-DD0F-794D-9BE2-90A41B8E810B}">
+  <dimension ref="C9:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.258</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2.0790000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2.2709999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.156</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2.5169999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3.0870000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="3:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="2">
+        <v>9.9238794500000002E-8</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5.8019999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>